--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -4114,7 +4114,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{006CC110-F2AD-4AC8-BB85-C4067FD61BED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E3AC295-6B46-4B4E-8139-A370EA1BF637}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -4114,7 +4114,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A0D145-9359-49AC-B152-DB53D27861BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFBA374-5E6B-4F3C-B7E7-9977FD36D411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -3882,8 +3882,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -3901,9 +3901,6 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3949,23 +3946,6 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4114,7 +4094,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFBA374-5E6B-4F3C-B7E7-9977FD36D411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD10741A-CD80-433C-9CC3-30B622060366}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -3882,8 +3882,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -3901,6 +3901,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3946,6 +3949,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4094,22 +4114,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD10741A-CD80-433C-9CC3-30B622060366}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
-    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9FF75A-F1E7-4866-A612-9BA9F1880987}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -4114,7 +4114,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9FF75A-F1E7-4866-A612-9BA9F1880987}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7054049-6EFD-4F13-BB22-F5C1326348FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -4114,7 +4114,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7054049-6EFD-4F13-BB22-F5C1326348FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68FA39A9-3E8C-48EA-84FE-F95862EE999F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -3882,8 +3882,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -3901,9 +3901,6 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3949,23 +3946,6 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4114,7 +4094,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68FA39A9-3E8C-48EA-84FE-F95862EE999F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD10741A-CD80-433C-9CC3-30B622060366}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_hcw.xlsx
+++ b/data/input/static/base_population_hcw.xlsx
@@ -3882,8 +3882,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -3901,6 +3901,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3946,6 +3949,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4094,22 +4114,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD10741A-CD80-433C-9CC3-30B622060366}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
-    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A14C8FC-F0B0-4D3D-A47C-7090826B8B89}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
